--- a/biology/Médecine/1129_en_santé_et_médecine/1129_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1129_en_santé_et_médecine/1129_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1129_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1129_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1129 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1129_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1129_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1128-1129 : « une vague d'épidémies d'ergotisme déferl[e] sur la France du Nord[2] », faisant douze mille victimes dans le Cambrésis[3] et quatorze mille en Île-de-France[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1128-1129 : « une vague d'épidémies d'ergotisme déferl[e] sur la France du Nord », faisant douze mille victimes dans le Cambrésis et quatorze mille en Île-de-France.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1129_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1129_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fondation de l’aumônerie du Saint-Esprit-du-Pont-du-Rhône, établissement qui est à l'origine de l'hôtel-Dieu de Lyon[5],[6].
-La léproserie Saint-Barthélemy (Hospital of St. Bartholomew), fondée par le roi Henri Ier à Oxford, en Angleterre, pour recevoir douze malades et un chapelain, est mentionnée sur le Pipe Roll (registre de l'Échiquier[7]).
-La léproserie de la Madeleine à Malestroit, en Bretagne, est érigée par Payen Ier, seigneur du lieu, et Jacques, évêque de Vannes, en un prieuré dépendant de l'abbaye de Marmoutier de Tours[8],[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation de l’aumônerie du Saint-Esprit-du-Pont-du-Rhône, établissement qui est à l'origine de l'hôtel-Dieu de Lyon,.
+La léproserie Saint-Barthélemy (Hospital of St. Bartholomew), fondée par le roi Henri Ier à Oxford, en Angleterre, pour recevoir douze malades et un chapelain, est mentionnée sur le Pipe Roll (registre de l'Échiquier).
+La léproserie de la Madeleine à Malestroit, en Bretagne, est érigée par Payen Ier, seigneur du lieu, et Jacques, évêque de Vannes, en un prieuré dépendant de l'abbaye de Marmoutier de Tours,.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1129_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1129_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +589,14 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fl. Guillaume, « minutor », c'est-à-dire saigneur, et son fils Joscelinus, médecin, cités dans une charte de l'abbaye Saint-Jean-en-Vallée de Chartres[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fl. Guillaume, « minutor », c'est-à-dire saigneur, et son fils Joscelinus, médecin, cités dans une charte de l'abbaye Saint-Jean-en-Vallée de Chartres.
 Vers 1101-1129 :
-Fl. Gaucelin et Gilesbert, saigneurs, cités dans des chartes de Saint-Père de Chartres[10].
-Fl. Bernard, médecin, chanoine de Notre-Dame de Chartres et moine de l'abbaye de Josaphat[11].
+Fl. Gaucelin et Gilesbert, saigneurs, cités dans des chartes de Saint-Père de Chartres.
+Fl. Bernard, médecin, chanoine de Notre-Dame de Chartres et moine de l'abbaye de Josaphat.
 </t>
         </is>
       </c>
